--- a/data/CDC cases projection 2022-02-19.xlsx
+++ b/data/CDC cases projection 2022-02-19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt_\GitHub\covid-wisconsin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EC069EAF-EA59-4B38-A519-FDE389686D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2D25E4E8-0C31-4FE9-B219-AAFBAD037B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -5995,8 +5995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CDC cases projection 2022-02-19.xlsx
+++ b/data/CDC cases projection 2022-02-19.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt_\GitHub\covid-wisconsin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\covid-wisconsin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2D25E4E8-0C31-4FE9-B219-AAFBAD037B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB0F809-F557-4395-B1F5-07EF9E057C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_table_for_daily_case_trend" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2173,7 +2184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2797,155 +2808,164 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$B$13:$B$61</c:f>
+              <c:f>data_table_for_daily_case_trend!$B$10:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44611</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>44610</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>44609</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>44608</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>44607</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>44606</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>44605</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>44604</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>44603</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>44602</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>44601</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>44600</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>44599</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>44598</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>44597</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>44596</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>44595</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>44594</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>44593</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>44592</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>44591</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>44590</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>44589</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>44588</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>44587</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>44586</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>44585</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>44584</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>44583</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>44582</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>44581</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>44580</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>44579</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>44578</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>44577</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>44576</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>44575</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>44574</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>44573</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>44572</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>44571</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>44570</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>44569</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>44568</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>44567</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>44566</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
                   <c:v>44565</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>44564</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>44563</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>44562</c:v>
                 </c:pt>
               </c:numCache>
@@ -2953,156 +2973,165 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$D$13:$D$61</c:f>
+              <c:f>data_table_for_daily_case_trend!$D$10:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>108159</c:v>
+                  <c:v>61359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101303</c:v>
+                  <c:v>26104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109422</c:v>
+                  <c:v>30989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109969</c:v>
+                  <c:v>108671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>199342</c:v>
+                  <c:v>101349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40950</c:v>
+                  <c:v>109608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55089</c:v>
+                  <c:v>110063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>172496</c:v>
+                  <c:v>199305</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>164386</c:v>
+                  <c:v>40923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199169</c:v>
+                  <c:v>54993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>190344</c:v>
+                  <c:v>172455</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>310794</c:v>
+                  <c:v>164351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90271</c:v>
+                  <c:v>199156</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91295</c:v>
+                  <c:v>190340</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>272825</c:v>
+                  <c:v>310792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>340678</c:v>
+                  <c:v>90265</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>309768</c:v>
+                  <c:v>91285</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>290386</c:v>
+                  <c:v>272799</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>620416</c:v>
+                  <c:v>340670</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>138089</c:v>
+                  <c:v>309761</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>290380</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>620414</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138080</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>195076</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>521788</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>570652</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>568993</c:v>
-                </c:pt>
                 <c:pt idx="24">
+                  <c:v>521782</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>570649</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>568988</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>502420</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>1060281</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>291779</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>299989</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>771887</c:v>
+                  <c:v>1060277</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>769924</c:v>
+                  <c:v>291772</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>780404</c:v>
+                  <c:v>299985</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>917498</c:v>
+                  <c:v>771884</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>970281</c:v>
+                  <c:v>769916</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>391762</c:v>
+                  <c:v>780402</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>435321</c:v>
+                  <c:v>917489</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>842994</c:v>
+                  <c:v>970276</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>897348</c:v>
+                  <c:v>391756</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>862036</c:v>
+                  <c:v>435318</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>817765</c:v>
+                  <c:v>842990</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1336005</c:v>
+                  <c:v>897336</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>458341</c:v>
+                  <c:v>862035</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>413690</c:v>
+                  <c:v>817746</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>849492</c:v>
+                  <c:v>1335999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>797372</c:v>
+                  <c:v>458337</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>713709</c:v>
+                  <c:v>413671</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>734000</c:v>
+                  <c:v>849488</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>797366</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>713707</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>733999</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>955765</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>400536</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>279774</c:v>
+                <c:pt idx="51">
+                  <c:v>279775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,155 +3171,164 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$B$13:$B$61</c:f>
+              <c:f>data_table_for_daily_case_trend!$B$10:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44611</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>44610</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>44609</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>44608</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>44607</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>44606</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>44605</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>44604</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>44603</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>44602</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>44601</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>44600</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>44599</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>44598</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>44597</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>44596</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>44595</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>44594</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>44593</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>44592</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>44591</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>44590</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>44589</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>44588</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>44587</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>44586</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>44585</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>44584</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>44583</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>44582</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>44581</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>44580</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>44579</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>44578</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>44577</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>44576</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>44575</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>44574</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>44573</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>44572</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>44571</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>44570</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>44569</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>44568</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>44567</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>44566</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
                   <c:v>44565</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>44564</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>44563</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>44562</c:v>
                 </c:pt>
               </c:numCache>
@@ -3298,156 +3336,165 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$E$13:$E$61</c:f>
+              <c:f>data_table_for_daily_case_trend!$E$10:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>103462</c:v>
+                  <c:v>78306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112653</c:v>
+                  <c:v>98012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>121664</c:v>
+                  <c:v>100129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134485</c:v>
+                  <c:v>103558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145968</c:v>
+                  <c:v>112670</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161889</c:v>
+                  <c:v>121671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>168935</c:v>
+                  <c:v>134463</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>174107</c:v>
+                  <c:v>145931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>188440</c:v>
+                  <c:v>161858</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213625</c:v>
+                  <c:v>168907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>229425</c:v>
+                  <c:v>174092</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>243716</c:v>
+                  <c:v>188426</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>287948</c:v>
+                  <c:v>213615</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>294779</c:v>
+                  <c:v>229416</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>309605</c:v>
+                  <c:v>243707</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>345171</c:v>
+                  <c:v>287939</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>378025</c:v>
+                  <c:v>294769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>415057</c:v>
+                  <c:v>309597</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>445347</c:v>
+                  <c:v>345166</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>508185</c:v>
+                  <c:v>378020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>530141</c:v>
+                  <c:v>415052</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>545128</c:v>
+                  <c:v>445344</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>580857</c:v>
+                  <c:v>508181</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>609324</c:v>
+                  <c:v>530137</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>639526</c:v>
+                  <c:v>545124</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>698823</c:v>
+                  <c:v>580853</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>685966</c:v>
+                  <c:v>609320</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>700249</c:v>
+                  <c:v>639522</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>719582</c:v>
+                  <c:v>698817</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>729740</c:v>
+                  <c:v>685960</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>747944</c:v>
+                  <c:v>700244</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>759605</c:v>
+                  <c:v>719577</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>745358</c:v>
+                  <c:v>729735</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>797604</c:v>
+                  <c:v>747938</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>807115</c:v>
+                  <c:v>759600</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>804025</c:v>
+                  <c:v>745351</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>804953</c:v>
+                  <c:v>797597</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>790671</c:v>
+                  <c:v>807108</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>769482</c:v>
+                  <c:v>804016</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>757515</c:v>
+                  <c:v>804944</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>703195</c:v>
+                  <c:v>790663</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>694937</c:v>
+                  <c:v>769473</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>675806</c:v>
+                  <c:v>757509</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>619474</c:v>
+                  <c:v>703190</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>591028</c:v>
+                  <c:v>694933</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>558803</c:v>
+                  <c:v>675805</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>511503</c:v>
+                  <c:v>619472</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>445076</c:v>
+                  <c:v>591027</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>417524</c:v>
+                  <c:v>558802</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>511502</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>445075</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>417523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3485,157 +3532,331 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data_table_for_daily_case_trend!$B$10:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44604</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44598</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44597</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44596</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44595</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44592</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44590</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44587</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44586</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44584</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44583</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44582</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44579</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44577</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44576</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44575</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44572</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44570</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44569</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44567</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44565</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44563</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$F$13:$F$61</c:f>
+              <c:f>data_table_for_daily_case_trend!$F$10:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>103202.89814900722</c:v>
+                  <c:v>80842.024497988939</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>87697.810694544576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108480.47316866265</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>111954.99223581601</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>121449.30531335277</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>131748.78106397882</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>142921.70109214965</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>155042.13760546566</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>168190.44448521821</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>182453.79000204158</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>197926.73470837282</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>214711.85833892651</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>232920.43987529614</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>252673.19528325164</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>274101.07781365042</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>297346.14617265214</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>322562.50631687639</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>349917.33311724482</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>379591.97866475268</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>411783.17456581281</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>446704.33619793376</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>484586.97757245228</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>525682.2461843174</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>570262.58802440146</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>618623.55379273219</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>671085.75828715216</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>727997.00595741055</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>789734.59671629616</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>856707.82729446772</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>929360.70472200774</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>1008174.8899260518</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>1093672.8909594251</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>1186421.5270301765</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>1287035.6862972083</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>1396182.4023447561</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>1514585.2763611928</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>1643029.2743395192</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>1782365.9311031548</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>1933518.995657742</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>2097490.5552954925</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>2275367.6790525597</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>2468329.6245630351</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>2677655.6560882549</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>2904733.5255519967</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>3151068.6728075827</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>3418294.2061311635</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>3708181.7291080668</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
                   <c:v>4022653.0856903289</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>4363793.1012906777</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>4733863.4043815844</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>5135317.4202313041</c:v>
                 </c:pt>
               </c:numCache>
@@ -3930,71 +4151,80 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$C$13:$C$33</c:f>
+              <c:f>data_table_for_daily_case_trend!$C$10:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
@@ -4002,71 +4232,80 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$D$13:$D$33</c:f>
+              <c:f>data_table_for_daily_case_trend!$D$10:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>108159</c:v>
+                  <c:v>61359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101303</c:v>
+                  <c:v>26104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109422</c:v>
+                  <c:v>30989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109969</c:v>
+                  <c:v>108671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>199342</c:v>
+                  <c:v>101349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40950</c:v>
+                  <c:v>109608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55089</c:v>
+                  <c:v>110063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>172496</c:v>
+                  <c:v>199305</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>164386</c:v>
+                  <c:v>40923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199169</c:v>
+                  <c:v>54993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>190344</c:v>
+                  <c:v>172455</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>310794</c:v>
+                  <c:v>164351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90271</c:v>
+                  <c:v>199156</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91295</c:v>
+                  <c:v>190340</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>272825</c:v>
+                  <c:v>310792</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>340678</c:v>
+                  <c:v>90265</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>309768</c:v>
+                  <c:v>91285</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>290386</c:v>
+                  <c:v>272799</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>620416</c:v>
+                  <c:v>340670</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>138089</c:v>
+                  <c:v>309761</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>290380</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>620414</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138080</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>195076</c:v>
                 </c:pt>
               </c:numCache>
@@ -4151,71 +4390,80 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$C$13:$C$33</c:f>
+              <c:f>data_table_for_daily_case_trend!$C$10:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
@@ -4223,72 +4471,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$E$13:$E$33</c:f>
+              <c:f>data_table_for_daily_case_trend!$E$10:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>103462</c:v>
+                  <c:v>78306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112653</c:v>
+                  <c:v>98012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>121664</c:v>
+                  <c:v>100129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134485</c:v>
+                  <c:v>103558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145968</c:v>
+                  <c:v>112670</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161889</c:v>
+                  <c:v>121671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>168935</c:v>
+                  <c:v>134463</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>174107</c:v>
+                  <c:v>145931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>188440</c:v>
+                  <c:v>161858</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213625</c:v>
+                  <c:v>168907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>229425</c:v>
+                  <c:v>174092</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>243716</c:v>
+                  <c:v>188426</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>287948</c:v>
+                  <c:v>213615</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>294779</c:v>
+                  <c:v>229416</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>309605</c:v>
+                  <c:v>243707</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>345171</c:v>
+                  <c:v>287939</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>378025</c:v>
+                  <c:v>294769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>415057</c:v>
+                  <c:v>309597</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>445347</c:v>
+                  <c:v>345166</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>508185</c:v>
+                  <c:v>378020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>530141</c:v>
+                  <c:v>415052</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>445344</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>508181</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>530137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5992,23 +6249,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
     <col min="5" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6031,7 +6288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>44621</v>
       </c>
@@ -6044,7 +6301,7 @@
         <v>42152.623963197031</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>44620</v>
       </c>
@@ -6057,7 +6314,7 @@
         <v>45727.365928283223</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>44619</v>
       </c>
@@ -6070,7 +6327,7 @@
         <v>49605.262926567477</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>44618</v>
       </c>
@@ -6083,7 +6340,7 @@
         <v>53812.023939299594</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>44617</v>
       </c>
@@ -6096,7 +6353,7 @@
         <v>58375.538190986219</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>44616</v>
       </c>
@@ -6109,7 +6366,7 @@
         <v>63326.060044335223</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>44615</v>
       </c>
@@ -6122,7 +6379,7 @@
         <v>68696.409575166268</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>44614</v>
       </c>
@@ -6135,7 +6392,7 @@
         <v>74522.190157022851</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>44613</v>
       </c>
@@ -6143,12 +6400,18 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
+      <c r="D10">
+        <v>61359</v>
+      </c>
+      <c r="E10">
+        <v>78306</v>
+      </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>80842.024497988939</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>44612</v>
       </c>
@@ -6156,12 +6419,18 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
+      <c r="D11">
+        <v>26104</v>
+      </c>
+      <c r="E11">
+        <v>98012</v>
+      </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>87697.810694544576</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>44611</v>
       </c>
@@ -6169,12 +6438,18 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
+      <c r="D12">
+        <v>30989</v>
+      </c>
+      <c r="E12">
+        <v>100129</v>
+      </c>
       <c r="F12" s="2">
-        <f xml:space="preserve"> 95135*EXP(-0.0814*(C12-50))</f>
+        <f xml:space="preserve"> 95135*EXP(-0.08*(C12-50))</f>
         <v>95135</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -6186,20 +6461,20 @@
         <v>49</v>
       </c>
       <c r="D13">
-        <v>108159</v>
+        <v>108671</v>
       </c>
       <c r="E13">
-        <v>103462</v>
+        <v>103558</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ref="F13:F61" si="2" xml:space="preserve"> 95135*EXP(-0.0814*(C13-50))</f>
-        <v>103202.89814900722</v>
+        <f>100000*EXP(-0.0814*(C13-50))</f>
+        <v>108480.47316866265</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -6211,20 +6486,20 @@
         <v>48</v>
       </c>
       <c r="D14">
-        <v>101303</v>
+        <v>101349</v>
       </c>
       <c r="E14">
-        <v>112653</v>
+        <v>112670</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F14:F61" si="2" xml:space="preserve"> 95135*EXP(-0.0814*(C14-50))</f>
         <v>111954.99223581601</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -6236,10 +6511,10 @@
         <v>47</v>
       </c>
       <c r="D15">
-        <v>109422</v>
+        <v>109608</v>
       </c>
       <c r="E15">
-        <v>121664</v>
+        <v>121671</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="2"/>
@@ -6249,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -6261,10 +6536,10 @@
         <v>46</v>
       </c>
       <c r="D16">
-        <v>109969</v>
+        <v>110063</v>
       </c>
       <c r="E16">
-        <v>134485</v>
+        <v>134463</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
@@ -6274,7 +6549,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -6286,10 +6561,10 @@
         <v>45</v>
       </c>
       <c r="D17">
-        <v>199342</v>
+        <v>199305</v>
       </c>
       <c r="E17">
-        <v>145968</v>
+        <v>145931</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
@@ -6299,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -6311,10 +6586,10 @@
         <v>44</v>
       </c>
       <c r="D18">
-        <v>40950</v>
+        <v>40923</v>
       </c>
       <c r="E18">
-        <v>161889</v>
+        <v>161858</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="2"/>
@@ -6324,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -6336,10 +6611,10 @@
         <v>43</v>
       </c>
       <c r="D19">
-        <v>55089</v>
+        <v>54993</v>
       </c>
       <c r="E19">
-        <v>168935</v>
+        <v>168907</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
@@ -6349,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -6361,10 +6636,10 @@
         <v>42</v>
       </c>
       <c r="D20">
-        <v>172496</v>
+        <v>172455</v>
       </c>
       <c r="E20">
-        <v>174107</v>
+        <v>174092</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
@@ -6374,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -6386,10 +6661,10 @@
         <v>41</v>
       </c>
       <c r="D21">
-        <v>164386</v>
+        <v>164351</v>
       </c>
       <c r="E21">
-        <v>188440</v>
+        <v>188426</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
@@ -6399,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -6411,10 +6686,10 @@
         <v>40</v>
       </c>
       <c r="D22">
-        <v>199169</v>
+        <v>199156</v>
       </c>
       <c r="E22">
-        <v>213625</v>
+        <v>213615</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="2"/>
@@ -6424,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -6436,10 +6711,10 @@
         <v>39</v>
       </c>
       <c r="D23">
-        <v>190344</v>
+        <v>190340</v>
       </c>
       <c r="E23">
-        <v>229425</v>
+        <v>229416</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="2"/>
@@ -6449,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -6461,10 +6736,10 @@
         <v>38</v>
       </c>
       <c r="D24">
-        <v>310794</v>
+        <v>310792</v>
       </c>
       <c r="E24">
-        <v>243716</v>
+        <v>243707</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="2"/>
@@ -6474,7 +6749,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -6486,10 +6761,10 @@
         <v>37</v>
       </c>
       <c r="D25">
-        <v>90271</v>
+        <v>90265</v>
       </c>
       <c r="E25">
-        <v>287948</v>
+        <v>287939</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="2"/>
@@ -6499,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -6511,10 +6786,10 @@
         <v>36</v>
       </c>
       <c r="D26">
-        <v>91295</v>
+        <v>91285</v>
       </c>
       <c r="E26">
-        <v>294779</v>
+        <v>294769</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="2"/>
@@ -6524,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -6536,10 +6811,10 @@
         <v>35</v>
       </c>
       <c r="D27">
-        <v>272825</v>
+        <v>272799</v>
       </c>
       <c r="E27">
-        <v>309605</v>
+        <v>309597</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="2"/>
@@ -6549,7 +6824,7 @@
         <v>13581</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -6561,10 +6836,10 @@
         <v>34</v>
       </c>
       <c r="D28">
-        <v>340678</v>
+        <v>340670</v>
       </c>
       <c r="E28">
-        <v>345171</v>
+        <v>345166</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="2"/>
@@ -6574,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -6586,10 +6861,10 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>309768</v>
+        <v>309761</v>
       </c>
       <c r="E29">
-        <v>378025</v>
+        <v>378020</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="2"/>
@@ -6599,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -6611,10 +6886,10 @@
         <v>32</v>
       </c>
       <c r="D30">
-        <v>290386</v>
+        <v>290380</v>
       </c>
       <c r="E30">
-        <v>415057</v>
+        <v>415052</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="2"/>
@@ -6624,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -6636,10 +6911,10 @@
         <v>31</v>
       </c>
       <c r="D31">
-        <v>620416</v>
+        <v>620414</v>
       </c>
       <c r="E31">
-        <v>445347</v>
+        <v>445344</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="2"/>
@@ -6649,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -6661,10 +6936,10 @@
         <v>30</v>
       </c>
       <c r="D32">
-        <v>138089</v>
+        <v>138080</v>
       </c>
       <c r="E32">
-        <v>508185</v>
+        <v>508181</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="2"/>
@@ -6674,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -6689,7 +6964,7 @@
         <v>195076</v>
       </c>
       <c r="E33">
-        <v>530141</v>
+        <v>530137</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="2"/>
@@ -6699,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -6711,10 +6986,10 @@
         <v>28</v>
       </c>
       <c r="D34">
-        <v>521788</v>
+        <v>521782</v>
       </c>
       <c r="E34">
-        <v>545128</v>
+        <v>545124</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="2"/>
@@ -6724,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -6736,10 +7011,10 @@
         <v>27</v>
       </c>
       <c r="D35">
-        <v>570652</v>
+        <v>570649</v>
       </c>
       <c r="E35">
-        <v>580857</v>
+        <v>580853</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="2"/>
@@ -6749,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -6761,10 +7036,10 @@
         <v>26</v>
       </c>
       <c r="D36">
-        <v>568993</v>
+        <v>568988</v>
       </c>
       <c r="E36">
-        <v>609324</v>
+        <v>609320</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="2"/>
@@ -6774,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -6789,7 +7064,7 @@
         <v>502420</v>
       </c>
       <c r="E37">
-        <v>639526</v>
+        <v>639522</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="2"/>
@@ -6799,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -6811,10 +7086,10 @@
         <v>24</v>
       </c>
       <c r="D38">
-        <v>1060281</v>
+        <v>1060277</v>
       </c>
       <c r="E38">
-        <v>698823</v>
+        <v>698817</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="2"/>
@@ -6824,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -6836,10 +7111,10 @@
         <v>23</v>
       </c>
       <c r="D39">
-        <v>291779</v>
+        <v>291772</v>
       </c>
       <c r="E39">
-        <v>685966</v>
+        <v>685960</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="2"/>
@@ -6849,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -6861,10 +7136,10 @@
         <v>22</v>
       </c>
       <c r="D40">
-        <v>299989</v>
+        <v>299985</v>
       </c>
       <c r="E40">
-        <v>700249</v>
+        <v>700244</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="2"/>
@@ -6874,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -6886,10 +7161,10 @@
         <v>21</v>
       </c>
       <c r="D41">
-        <v>771887</v>
+        <v>771884</v>
       </c>
       <c r="E41">
-        <v>719582</v>
+        <v>719577</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="2"/>
@@ -6899,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -6911,10 +7186,10 @@
         <v>20</v>
       </c>
       <c r="D42">
-        <v>769924</v>
+        <v>769916</v>
       </c>
       <c r="E42">
-        <v>729740</v>
+        <v>729735</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="2"/>
@@ -6924,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -6936,10 +7211,10 @@
         <v>19</v>
       </c>
       <c r="D43">
-        <v>780404</v>
+        <v>780402</v>
       </c>
       <c r="E43">
-        <v>747944</v>
+        <v>747938</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="2"/>
@@ -6949,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -6961,10 +7236,10 @@
         <v>18</v>
       </c>
       <c r="D44">
-        <v>917498</v>
+        <v>917489</v>
       </c>
       <c r="E44">
-        <v>759605</v>
+        <v>759600</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="2"/>
@@ -6974,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -6986,10 +7261,10 @@
         <v>17</v>
       </c>
       <c r="D45">
-        <v>970281</v>
+        <v>970276</v>
       </c>
       <c r="E45">
-        <v>745358</v>
+        <v>745351</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="2"/>
@@ -6999,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -7011,10 +7286,10 @@
         <v>16</v>
       </c>
       <c r="D46">
-        <v>391762</v>
+        <v>391756</v>
       </c>
       <c r="E46">
-        <v>797604</v>
+        <v>797597</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="2"/>
@@ -7024,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -7036,10 +7311,10 @@
         <v>15</v>
       </c>
       <c r="D47">
-        <v>435321</v>
+        <v>435318</v>
       </c>
       <c r="E47">
-        <v>807115</v>
+        <v>807108</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="2"/>
@@ -7049,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -7061,10 +7336,10 @@
         <v>14</v>
       </c>
       <c r="D48">
-        <v>842994</v>
+        <v>842990</v>
       </c>
       <c r="E48">
-        <v>804025</v>
+        <v>804016</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" si="2"/>
@@ -7074,7 +7349,7 @@
         <v>46571</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -7086,10 +7361,10 @@
         <v>13</v>
       </c>
       <c r="D49">
-        <v>897348</v>
+        <v>897336</v>
       </c>
       <c r="E49">
-        <v>804953</v>
+        <v>804944</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="2"/>
@@ -7099,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -7111,10 +7386,10 @@
         <v>12</v>
       </c>
       <c r="D50">
-        <v>862036</v>
+        <v>862035</v>
       </c>
       <c r="E50">
-        <v>790671</v>
+        <v>790663</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="2"/>
@@ -7124,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -7136,10 +7411,10 @@
         <v>11</v>
       </c>
       <c r="D51">
-        <v>817765</v>
+        <v>817746</v>
       </c>
       <c r="E51">
-        <v>769482</v>
+        <v>769473</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="2"/>
@@ -7149,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -7161,10 +7436,10 @@
         <v>10</v>
       </c>
       <c r="D52">
-        <v>1336005</v>
+        <v>1335999</v>
       </c>
       <c r="E52">
-        <v>757515</v>
+        <v>757509</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" si="2"/>
@@ -7174,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -7186,10 +7461,10 @@
         <v>9</v>
       </c>
       <c r="D53">
-        <v>458341</v>
+        <v>458337</v>
       </c>
       <c r="E53">
-        <v>703195</v>
+        <v>703190</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="2"/>
@@ -7199,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -7211,10 +7486,10 @@
         <v>8</v>
       </c>
       <c r="D54">
-        <v>413690</v>
+        <v>413671</v>
       </c>
       <c r="E54">
-        <v>694937</v>
+        <v>694933</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="2"/>
@@ -7224,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -7236,10 +7511,10 @@
         <v>7</v>
       </c>
       <c r="D55">
-        <v>849492</v>
+        <v>849488</v>
       </c>
       <c r="E55">
-        <v>675806</v>
+        <v>675805</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="2"/>
@@ -7249,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -7261,10 +7536,10 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>797372</v>
+        <v>797366</v>
       </c>
       <c r="E56">
-        <v>619474</v>
+        <v>619472</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="2"/>
@@ -7274,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -7286,10 +7561,10 @@
         <v>5</v>
       </c>
       <c r="D57">
-        <v>713709</v>
+        <v>713707</v>
       </c>
       <c r="E57">
-        <v>591028</v>
+        <v>591027</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="2"/>
@@ -7299,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -7311,10 +7586,10 @@
         <v>4</v>
       </c>
       <c r="D58">
-        <v>734000</v>
+        <v>733999</v>
       </c>
       <c r="E58">
-        <v>558803</v>
+        <v>558802</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="2"/>
@@ -7324,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -7339,7 +7614,7 @@
         <v>955765</v>
       </c>
       <c r="E59">
-        <v>511503</v>
+        <v>511502</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" si="2"/>
@@ -7349,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -7364,7 +7639,7 @@
         <v>400536</v>
       </c>
       <c r="E60">
-        <v>445076</v>
+        <v>445075</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="2"/>
@@ -7374,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -7386,10 +7661,10 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>279774</v>
+        <v>279775</v>
       </c>
       <c r="E61">
-        <v>417524</v>
+        <v>417523</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="2"/>
@@ -7399,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -7407,16 +7682,16 @@
         <v>44561</v>
       </c>
       <c r="D62">
-        <v>455162</v>
+        <v>455158</v>
       </c>
       <c r="E62">
-        <v>394634</v>
+        <v>394633</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -7433,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -7450,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -7467,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -7484,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -7501,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -7518,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -7535,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -7552,7 +7827,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -7569,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -7586,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -7603,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -7620,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -7637,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -7654,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -7671,7 +7946,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -7688,7 +7963,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -7705,7 +7980,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -7722,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -7739,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -7756,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -7773,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -7790,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -7807,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -7824,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -7841,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -7858,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -7875,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -7892,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -7909,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -7926,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -7943,7 +8218,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -7960,7 +8235,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -7977,7 +8252,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -7994,7 +8269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -8011,7 +8286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -8028,7 +8303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -8045,7 +8320,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -8062,7 +8337,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -8079,7 +8354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -8096,7 +8371,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -8113,7 +8388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -8130,7 +8405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -8147,7 +8422,7 @@
         <v>10684</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -8164,7 +8439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -8181,7 +8456,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -8198,7 +8473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -8215,7 +8490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -8232,7 +8507,7 @@
         <v>15371</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -8249,7 +8524,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -8266,7 +8541,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -8283,7 +8558,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -8300,7 +8575,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -8317,7 +8592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -8334,7 +8609,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -8351,7 +8626,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -8368,7 +8643,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -8385,7 +8660,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -8402,7 +8677,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -8419,7 +8694,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -8436,7 +8711,7 @@
         <v>7959</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -8453,7 +8728,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -8470,7 +8745,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -8487,7 +8762,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -8504,7 +8779,7 @@
         <v>21885</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -8521,7 +8796,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -8538,7 +8813,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -8555,7 +8830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -8572,7 +8847,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -8589,7 +8864,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -8606,7 +8881,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -8623,7 +8898,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -8640,7 +8915,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -8657,7 +8932,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -8674,7 +8949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -8691,7 +8966,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -8708,7 +8983,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -8725,7 +9000,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -8742,7 +9017,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -8759,7 +9034,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -8776,7 +9051,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -8793,7 +9068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -8810,7 +9085,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -8827,7 +9102,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -8844,7 +9119,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -8861,7 +9136,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -8878,7 +9153,7 @@
         <v>10536</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -8895,7 +9170,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -8912,7 +9187,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -8929,7 +9204,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -8946,7 +9221,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -8963,7 +9238,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -8980,7 +9255,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -8997,7 +9272,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -9014,7 +9289,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -9031,7 +9306,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -9048,7 +9323,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -9065,7 +9340,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -9082,7 +9357,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -9099,7 +9374,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -9116,7 +9391,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -9133,7 +9408,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -9150,7 +9425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -9167,7 +9442,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -9184,7 +9459,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -9201,7 +9476,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -9218,7 +9493,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -9235,7 +9510,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -9252,7 +9527,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -9269,7 +9544,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -9286,7 +9561,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -9303,7 +9578,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -9320,7 +9595,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -9337,7 +9612,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -9354,7 +9629,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -9371,7 +9646,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -9388,7 +9663,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -9405,7 +9680,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -9422,7 +9697,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -9439,7 +9714,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -9456,7 +9731,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -9473,7 +9748,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -9490,7 +9765,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -9507,7 +9782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -9524,7 +9799,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -9541,7 +9816,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -9558,7 +9833,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -9575,7 +9850,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -9592,7 +9867,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -9609,7 +9884,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -9626,7 +9901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -9643,7 +9918,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -9660,7 +9935,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -9677,7 +9952,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -9694,7 +9969,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -9711,7 +9986,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -9728,7 +10003,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -9745,7 +10020,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -9762,7 +10037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -9779,7 +10054,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -9796,7 +10071,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -9813,7 +10088,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -9830,7 +10105,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -9847,7 +10122,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -9864,7 +10139,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -9881,7 +10156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -9898,7 +10173,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -9915,7 +10190,7 @@
         <v>7773</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -9932,7 +10207,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -9949,7 +10224,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -9966,7 +10241,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -9983,7 +10258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -10000,7 +10275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -10017,7 +10292,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -10034,7 +10309,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -10051,7 +10326,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -10068,7 +10343,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -10085,7 +10360,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -10102,7 +10377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -10119,7 +10394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -10136,7 +10411,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -10153,7 +10428,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -10170,7 +10445,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -10187,7 +10462,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -10204,7 +10479,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -10221,7 +10496,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -10238,7 +10513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -10255,7 +10530,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -10272,7 +10547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -10289,7 +10564,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -10306,7 +10581,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -10323,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -10340,7 +10615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -10357,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -10374,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -10391,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -10408,7 +10683,7 @@
         <v>155785</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -10425,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -10442,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -10459,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -10476,7 +10751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -10493,7 +10768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -10510,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -10527,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -10544,7 +10819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -10561,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -10578,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -10595,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -10612,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -10629,7 +10904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -10646,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -10663,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -10680,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -10697,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -10714,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -10731,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -10748,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -10765,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -10782,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -10799,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -10816,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -10833,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -10850,7 +11125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -10867,7 +11142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -10884,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -10901,7 +11176,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -10918,7 +11193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>5</v>
       </c>
@@ -10935,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -10952,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>5</v>
       </c>
@@ -10969,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -10986,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>5</v>
       </c>
@@ -11003,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -11020,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -11037,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>5</v>
       </c>
@@ -11054,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -11071,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -11088,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -11105,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -11122,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -11139,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -11156,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -11173,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -11190,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -11207,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -11224,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -11241,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -11258,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>5</v>
       </c>
@@ -11275,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -11292,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -11309,7 +11584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -11326,7 +11601,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>5</v>
       </c>
@@ -11343,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -11360,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -11377,7 +11652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -11394,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -11411,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>5</v>
       </c>
@@ -11428,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -11445,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -11462,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -11479,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -11496,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -11513,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -11530,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -11547,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -11564,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -11581,7 +11856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>5</v>
       </c>
@@ -11598,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>5</v>
       </c>
@@ -11615,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -11632,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>5</v>
       </c>
@@ -11649,7 +11924,7 @@
         <v>-9005</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -11666,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -11683,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -11700,7 +11975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>5</v>
       </c>
@@ -11717,7 +11992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>5</v>
       </c>
@@ -11734,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -11751,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>5</v>
       </c>
@@ -11768,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>5</v>
       </c>
@@ -11785,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -11802,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -11819,7 +12094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -11836,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -11853,7 +12128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>5</v>
       </c>
@@ -11870,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>5</v>
       </c>
@@ -11887,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -11904,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>5</v>
       </c>
@@ -11921,7 +12196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -11938,7 +12213,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>5</v>
       </c>
@@ -11955,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -11972,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -11989,7 +12264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>5</v>
       </c>
@@ -12006,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>5</v>
       </c>
@@ -12023,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -12040,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>5</v>
       </c>
@@ -12057,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>5</v>
       </c>
@@ -12074,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>5</v>
       </c>
@@ -12091,7 +12366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>5</v>
       </c>
@@ -12108,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>5</v>
       </c>
@@ -12125,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>5</v>
       </c>
@@ -12142,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>5</v>
       </c>
@@ -12159,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -12176,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>5</v>
       </c>
@@ -12193,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -12210,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -12227,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -12244,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -12261,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -12278,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -12295,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -12312,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -12329,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>5</v>
       </c>
@@ -12346,7 +12621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>5</v>
       </c>
@@ -12363,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -12380,7 +12655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>5</v>
       </c>
@@ -12397,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>5</v>
       </c>
@@ -12414,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>5</v>
       </c>
@@ -12431,7 +12706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>5</v>
       </c>
@@ -12448,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>5</v>
       </c>
@@ -12465,7 +12740,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>5</v>
       </c>
@@ -12482,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>5</v>
       </c>
@@ -12499,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>5</v>
       </c>
@@ -12516,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>5</v>
       </c>
@@ -12533,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>5</v>
       </c>
@@ -12550,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>5</v>
       </c>
@@ -12567,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>5</v>
       </c>
@@ -12584,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -12601,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>5</v>
       </c>
@@ -12618,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>5</v>
       </c>
@@ -12635,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>5</v>
       </c>
@@ -12652,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -12669,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>5</v>
       </c>
@@ -12686,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>5</v>
       </c>
@@ -12703,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>5</v>
       </c>
@@ -12720,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>5</v>
       </c>
@@ -12737,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -12754,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -12771,7 +13046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>5</v>
       </c>
@@ -12788,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>5</v>
       </c>
@@ -12805,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -12822,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>5</v>
       </c>
@@ -12839,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -12856,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -12873,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>5</v>
       </c>
@@ -12890,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>5</v>
       </c>
@@ -12907,7 +13182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>5</v>
       </c>
@@ -12924,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>5</v>
       </c>
@@ -12941,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>5</v>
       </c>
@@ -12958,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>5</v>
       </c>
@@ -12975,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>5</v>
       </c>
@@ -12992,7 +13267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>5</v>
       </c>
@@ -13009,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -13026,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -13043,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -13060,7 +13335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>5</v>
       </c>
@@ -13077,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -13094,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>5</v>
       </c>
@@ -13111,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>5</v>
       </c>
@@ -13128,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -13145,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>5</v>
       </c>
@@ -13162,7 +13437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>5</v>
       </c>
@@ -13179,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>5</v>
       </c>
@@ -13196,7 +13471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>5</v>
       </c>
@@ -13213,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>5</v>
       </c>
@@ -13230,7 +13505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>5</v>
       </c>
@@ -13247,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -13264,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -13281,7 +13556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>5</v>
       </c>
@@ -13298,7 +13573,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>5</v>
       </c>
@@ -13315,7 +13590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>5</v>
       </c>
@@ -13332,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>5</v>
       </c>
@@ -13349,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>5</v>
       </c>
@@ -13366,7 +13641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>5</v>
       </c>
@@ -13383,7 +13658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>5</v>
       </c>
@@ -13400,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>5</v>
       </c>
@@ -13417,7 +13692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>5</v>
       </c>
@@ -13434,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>5</v>
       </c>
@@ -13451,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>5</v>
       </c>
@@ -13468,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>5</v>
       </c>
@@ -13485,7 +13760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>5</v>
       </c>
@@ -13502,7 +13777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>5</v>
       </c>
@@ -13519,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>5</v>
       </c>
@@ -13536,7 +13811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>5</v>
       </c>
@@ -13553,7 +13828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -13570,7 +13845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>5</v>
       </c>
@@ -13587,7 +13862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>5</v>
       </c>
@@ -13604,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>5</v>
       </c>
@@ -13621,7 +13896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>5</v>
       </c>
@@ -13638,7 +13913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>5</v>
       </c>
@@ -13655,7 +13930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>5</v>
       </c>
@@ -13672,7 +13947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>5</v>
       </c>
@@ -13689,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>5</v>
       </c>
@@ -13706,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>5</v>
       </c>
@@ -13723,7 +13998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>5</v>
       </c>
@@ -13740,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>5</v>
       </c>
@@ -13757,7 +14032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>5</v>
       </c>
@@ -13774,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>5</v>
       </c>
@@ -13791,7 +14066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>5</v>
       </c>
@@ -13808,7 +14083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>5</v>
       </c>
@@ -13825,7 +14100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>5</v>
       </c>
@@ -13842,7 +14117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>5</v>
       </c>
@@ -13859,7 +14134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>5</v>
       </c>
@@ -13876,7 +14151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>5</v>
       </c>
@@ -13893,7 +14168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>5</v>
       </c>
@@ -13910,7 +14185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>5</v>
       </c>
@@ -13927,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>5</v>
       </c>
@@ -13944,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>5</v>
       </c>
@@ -13961,7 +14236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>5</v>
       </c>
@@ -13978,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>5</v>
       </c>
@@ -13995,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>5</v>
       </c>
@@ -14012,7 +14287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>5</v>
       </c>
@@ -14029,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>5</v>
       </c>
@@ -14046,7 +14321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>5</v>
       </c>
@@ -14063,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>5</v>
       </c>
@@ -14080,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>5</v>
       </c>
@@ -14097,7 +14372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -14114,7 +14389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>5</v>
       </c>
@@ -14131,7 +14406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>5</v>
       </c>
@@ -14148,7 +14423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>5</v>
       </c>
@@ -14165,7 +14440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>5</v>
       </c>
@@ -14182,7 +14457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>5</v>
       </c>
@@ -14199,7 +14474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>5</v>
       </c>
@@ -14216,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>5</v>
       </c>
@@ -14233,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>5</v>
       </c>
@@ -14250,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>5</v>
       </c>
@@ -14267,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>5</v>
       </c>
@@ -14284,7 +14559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>5</v>
       </c>
@@ -14301,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>5</v>
       </c>
@@ -14318,7 +14593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>5</v>
       </c>
@@ -14335,7 +14610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>5</v>
       </c>
@@ -14352,7 +14627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>5</v>
       </c>
@@ -14369,7 +14644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>5</v>
       </c>
@@ -14386,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>5</v>
       </c>
@@ -14403,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>5</v>
       </c>
@@ -14420,7 +14695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>5</v>
       </c>
@@ -14437,7 +14712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>5</v>
       </c>
@@ -14454,7 +14729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>5</v>
       </c>
@@ -14471,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>5</v>
       </c>
@@ -14488,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>5</v>
       </c>
@@ -14505,7 +14780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>5</v>
       </c>
@@ -14522,7 +14797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>5</v>
       </c>
@@ -14539,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>5</v>
       </c>
@@ -14556,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>5</v>
       </c>
@@ -14573,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>5</v>
       </c>
@@ -14590,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>5</v>
       </c>
@@ -14607,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>5</v>
       </c>
@@ -14624,7 +14899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>5</v>
       </c>
@@ -14641,7 +14916,7 @@
         <v>67475</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>5</v>
       </c>
@@ -14658,7 +14933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>5</v>
       </c>
@@ -14675,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>5</v>
       </c>
@@ -14692,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>5</v>
       </c>
@@ -14709,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>5</v>
       </c>
@@ -14726,7 +15001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>5</v>
       </c>
@@ -14743,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>5</v>
       </c>
@@ -14760,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>5</v>
       </c>
@@ -14777,7 +15052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>5</v>
       </c>
@@ -14794,7 +15069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>5</v>
       </c>
@@ -14811,7 +15086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>5</v>
       </c>
@@ -14828,7 +15103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>5</v>
       </c>
@@ -14845,7 +15120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>5</v>
       </c>
@@ -14862,7 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>5</v>
       </c>
@@ -14879,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>5</v>
       </c>
@@ -14896,7 +15171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>5</v>
       </c>
@@ -14913,7 +15188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>5</v>
       </c>
@@ -14930,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>5</v>
       </c>
@@ -14947,7 +15222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>5</v>
       </c>
@@ -14964,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>5</v>
       </c>
@@ -14981,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>5</v>
       </c>
@@ -14998,7 +15273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>5</v>
       </c>
@@ -15015,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>5</v>
       </c>
@@ -15032,7 +15307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>5</v>
       </c>
@@ -15049,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>5</v>
       </c>
@@ -15066,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>5</v>
       </c>
@@ -15083,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>5</v>
       </c>
@@ -15100,7 +15375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>5</v>
       </c>
@@ -15117,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>5</v>
       </c>
@@ -15134,7 +15409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>5</v>
       </c>
@@ -15151,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>5</v>
       </c>
@@ -15168,7 +15443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>5</v>
       </c>
@@ -15185,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>5</v>
       </c>
@@ -15202,7 +15477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>5</v>
       </c>
@@ -15219,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>5</v>
       </c>
@@ -15236,7 +15511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>5</v>
       </c>
@@ -15253,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>5</v>
       </c>
@@ -15270,7 +15545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>5</v>
       </c>
@@ -15287,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>5</v>
       </c>
@@ -15304,7 +15579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>5</v>
       </c>
@@ -15321,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>5</v>
       </c>
@@ -15338,7 +15613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>5</v>
       </c>
@@ -15355,7 +15630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>5</v>
       </c>
@@ -15372,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>5</v>
       </c>
@@ -15389,7 +15664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>5</v>
       </c>
@@ -15406,7 +15681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>5</v>
       </c>
@@ -15423,7 +15698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>5</v>
       </c>
@@ -15440,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>5</v>
       </c>
@@ -15457,7 +15732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>5</v>
       </c>
@@ -15474,7 +15749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>5</v>
       </c>
@@ -15491,7 +15766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>5</v>
       </c>
@@ -15508,7 +15783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>5</v>
       </c>
@@ -15525,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>5</v>
       </c>
@@ -15542,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>5</v>
       </c>
@@ -15559,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>5</v>
       </c>
@@ -15576,7 +15851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>5</v>
       </c>
@@ -15593,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>5</v>
       </c>
@@ -15610,7 +15885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>5</v>
       </c>
@@ -15627,7 +15902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>5</v>
       </c>
@@ -15644,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>5</v>
       </c>
@@ -15661,7 +15936,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>5</v>
       </c>
@@ -15678,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>5</v>
       </c>
@@ -15695,7 +15970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>5</v>
       </c>
@@ -15712,7 +15987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>5</v>
       </c>
@@ -15729,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>5</v>
       </c>
@@ -15746,7 +16021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>5</v>
       </c>
@@ -15763,7 +16038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>5</v>
       </c>
@@ -15780,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>5</v>
       </c>
@@ -15797,7 +16072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>5</v>
       </c>
@@ -15814,7 +16089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>5</v>
       </c>
@@ -15831,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>5</v>
       </c>
@@ -15848,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>5</v>
       </c>
@@ -15865,7 +16140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>5</v>
       </c>
@@ -15882,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>5</v>
       </c>
@@ -15899,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>5</v>
       </c>
@@ -15916,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>5</v>
       </c>
@@ -15933,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>5</v>
       </c>
@@ -15950,7 +16225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>5</v>
       </c>
@@ -15967,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>5</v>
       </c>
@@ -15984,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>5</v>
       </c>
@@ -16001,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>5</v>
       </c>
@@ -16018,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>5</v>
       </c>
@@ -16035,7 +16310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>5</v>
       </c>
@@ -16052,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>5</v>
       </c>
@@ -16069,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>5</v>
       </c>
@@ -16086,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>5</v>
       </c>
@@ -16103,7 +16378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>5</v>
       </c>
@@ -16120,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>5</v>
       </c>
@@ -16137,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>5</v>
       </c>
@@ -16154,7 +16429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>5</v>
       </c>
@@ -16171,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>5</v>
       </c>
@@ -16188,7 +16463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>5</v>
       </c>
@@ -16205,7 +16480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>5</v>
       </c>
@@ -16222,7 +16497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>5</v>
       </c>
@@ -16239,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>5</v>
       </c>
@@ -16256,7 +16531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>5</v>
       </c>
@@ -16273,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>5</v>
       </c>
@@ -16290,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>5</v>
       </c>
@@ -16307,7 +16582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>5</v>
       </c>
@@ -16324,7 +16599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>5</v>
       </c>
@@ -16341,7 +16616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>5</v>
       </c>
@@ -16358,7 +16633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>5</v>
       </c>
@@ -16375,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>5</v>
       </c>
@@ -16392,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>5</v>
       </c>
@@ -16409,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>5</v>
       </c>
@@ -16426,7 +16701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>5</v>
       </c>
@@ -16443,7 +16718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>5</v>
       </c>
@@ -16460,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>5</v>
       </c>
@@ -16477,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>5</v>
       </c>
@@ -16494,7 +16769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>5</v>
       </c>
@@ -16511,7 +16786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>5</v>
       </c>
@@ -16528,7 +16803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>5</v>
       </c>
@@ -16545,7 +16820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>5</v>
       </c>
@@ -16562,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>5</v>
       </c>
@@ -16579,7 +16854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>5</v>
       </c>
@@ -16596,7 +16871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>5</v>
       </c>
@@ -16613,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>5</v>
       </c>
@@ -16630,7 +16905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>5</v>
       </c>
@@ -16647,7 +16922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>5</v>
       </c>
@@ -16664,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>5</v>
       </c>
@@ -16681,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>5</v>
       </c>
@@ -16698,7 +16973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>5</v>
       </c>
@@ -16715,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>5</v>
       </c>
@@ -16732,7 +17007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>5</v>
       </c>
@@ -16749,7 +17024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>5</v>
       </c>
@@ -16766,7 +17041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>5</v>
       </c>
@@ -16783,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>5</v>
       </c>
@@ -16800,7 +17075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>5</v>
       </c>
@@ -16817,7 +17092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>5</v>
       </c>
@@ -16834,7 +17109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>5</v>
       </c>
@@ -16851,7 +17126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>5</v>
       </c>
@@ -16868,7 +17143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>5</v>
       </c>
@@ -16885,7 +17160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>5</v>
       </c>
@@ -16902,7 +17177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>5</v>
       </c>
@@ -16919,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>5</v>
       </c>
@@ -16936,7 +17211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>5</v>
       </c>
@@ -16953,7 +17228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>5</v>
       </c>
@@ -16970,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>5</v>
       </c>
@@ -16987,7 +17262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>5</v>
       </c>
@@ -17004,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>5</v>
       </c>
@@ -17021,7 +17296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>5</v>
       </c>
@@ -17038,7 +17313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>5</v>
       </c>
@@ -17055,7 +17330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>5</v>
       </c>
@@ -17072,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>5</v>
       </c>
@@ -17089,7 +17364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>5</v>
       </c>
@@ -17106,7 +17381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>5</v>
       </c>
@@ -17123,7 +17398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>5</v>
       </c>
@@ -17140,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>5</v>
       </c>
@@ -17157,7 +17432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>5</v>
       </c>
@@ -17174,7 +17449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>5</v>
       </c>
@@ -17191,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>5</v>
       </c>
@@ -17208,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>5</v>
       </c>
@@ -17225,7 +17500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>5</v>
       </c>
@@ -17242,7 +17517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>5</v>
       </c>
@@ -17259,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>5</v>
       </c>
@@ -17276,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>5</v>
       </c>
@@ -17293,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>5</v>
       </c>
@@ -17310,7 +17585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>5</v>
       </c>
@@ -17327,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>5</v>
       </c>
@@ -17344,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>5</v>
       </c>
@@ -17361,7 +17636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>5</v>
       </c>
@@ -17378,7 +17653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>5</v>
       </c>
@@ -17395,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>5</v>
       </c>
@@ -17412,7 +17687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>5</v>
       </c>
@@ -17429,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>5</v>
       </c>
@@ -17446,7 +17721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>5</v>
       </c>
@@ -17463,7 +17738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>5</v>
       </c>
@@ -17480,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>5</v>
       </c>
@@ -17497,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>5</v>
       </c>
@@ -17514,7 +17789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>5</v>
       </c>
@@ -17531,7 +17806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>5</v>
       </c>
@@ -17548,7 +17823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>5</v>
       </c>
@@ -17565,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>5</v>
       </c>
@@ -17582,7 +17857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>5</v>
       </c>
@@ -17599,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>5</v>
       </c>
@@ -17616,7 +17891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>5</v>
       </c>
@@ -17633,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>5</v>
       </c>
@@ -17650,7 +17925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>5</v>
       </c>
@@ -17667,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>5</v>
       </c>
@@ -17684,7 +17959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>5</v>
       </c>
@@ -17701,7 +17976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>5</v>
       </c>
@@ -17718,7 +17993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>5</v>
       </c>
@@ -17735,7 +18010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>5</v>
       </c>
@@ -17752,7 +18027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>5</v>
       </c>
@@ -17769,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>5</v>
       </c>
@@ -17786,7 +18061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>5</v>
       </c>
@@ -17803,7 +18078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>5</v>
       </c>
@@ -17820,7 +18095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>5</v>
       </c>
@@ -17837,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>5</v>
       </c>
@@ -17854,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>5</v>
       </c>
@@ -17871,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>5</v>
       </c>
@@ -17888,7 +18163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>5</v>
       </c>
@@ -17905,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>5</v>
       </c>
@@ -17922,7 +18197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>5</v>
       </c>
@@ -17939,7 +18214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>5</v>
       </c>
@@ -17956,7 +18231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>5</v>
       </c>
@@ -17973,7 +18248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>5</v>
       </c>
@@ -17990,7 +18265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>5</v>
       </c>
@@ -18007,7 +18282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>5</v>
       </c>
@@ -18024,7 +18299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>5</v>
       </c>
@@ -18041,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>5</v>
       </c>
@@ -18058,7 +18333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>5</v>
       </c>
@@ -18075,7 +18350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>5</v>
       </c>
@@ -18092,7 +18367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>5</v>
       </c>
@@ -18109,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>5</v>
       </c>
@@ -18126,7 +18401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>5</v>
       </c>
@@ -18143,7 +18418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>5</v>
       </c>
@@ -18160,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>5</v>
       </c>
@@ -18177,7 +18452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>5</v>
       </c>
@@ -18194,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>5</v>
       </c>
@@ -18211,7 +18486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>5</v>
       </c>
@@ -18228,7 +18503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>5</v>
       </c>
@@ -18245,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>5</v>
       </c>
@@ -18262,7 +18537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>5</v>
       </c>
@@ -18279,7 +18554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>5</v>
       </c>
@@ -18296,7 +18571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>5</v>
       </c>
@@ -18313,7 +18588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>5</v>
       </c>
@@ -18330,7 +18605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>5</v>
       </c>
@@ -18347,7 +18622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>5</v>
       </c>
@@ -18364,7 +18639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>5</v>
       </c>
@@ -18381,7 +18656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>5</v>
       </c>
@@ -18398,7 +18673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>5</v>
       </c>
@@ -18415,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>5</v>
       </c>
@@ -18432,7 +18707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>5</v>
       </c>
@@ -18449,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>5</v>
       </c>
@@ -18466,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>5</v>
       </c>
@@ -18483,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>5</v>
       </c>
@@ -18500,7 +18775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>5</v>
       </c>
@@ -18517,7 +18792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>5</v>
       </c>
@@ -18534,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>5</v>
       </c>
@@ -18551,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>5</v>
       </c>
@@ -18568,7 +18843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>5</v>
       </c>
@@ -18585,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>5</v>
       </c>
@@ -18602,7 +18877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>5</v>
       </c>
@@ -18619,7 +18894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>5</v>
       </c>
@@ -18636,7 +18911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>5</v>
       </c>
@@ -18653,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>5</v>
       </c>
@@ -18670,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>5</v>
       </c>
@@ -18687,7 +18962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>5</v>
       </c>
@@ -18704,7 +18979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>5</v>
       </c>
@@ -18721,7 +18996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>5</v>
       </c>
@@ -18738,7 +19013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>5</v>
       </c>
@@ -18755,7 +19030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>5</v>
       </c>
@@ -18772,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>5</v>
       </c>
@@ -18789,7 +19064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>5</v>
       </c>
@@ -18806,7 +19081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>5</v>
       </c>
@@ -18823,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>5</v>
       </c>
@@ -18840,7 +19115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>5</v>
       </c>
@@ -18857,7 +19132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>5</v>
       </c>
@@ -18874,7 +19149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>5</v>
       </c>
@@ -18891,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>5</v>
       </c>
@@ -18908,7 +19183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>5</v>
       </c>
@@ -18925,7 +19200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>5</v>
       </c>
@@ -18942,7 +19217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>5</v>
       </c>
@@ -18959,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>5</v>
       </c>
@@ -18976,7 +19251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>5</v>
       </c>
@@ -18993,7 +19268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>5</v>
       </c>
@@ -19010,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>5</v>
       </c>
@@ -19027,7 +19302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>5</v>
       </c>
@@ -19044,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>5</v>
       </c>
@@ -19061,7 +19336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>5</v>
       </c>
@@ -19078,7 +19353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>5</v>
       </c>
@@ -19095,7 +19370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>5</v>
       </c>
@@ -19112,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>5</v>
       </c>
@@ -19129,7 +19404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>5</v>
       </c>
@@ -19146,7 +19421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>5</v>
       </c>
@@ -19163,7 +19438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>5</v>
       </c>
@@ -19180,7 +19455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>5</v>
       </c>
@@ -19197,7 +19472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>5</v>
       </c>
@@ -19214,7 +19489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>5</v>
       </c>
@@ -19231,7 +19506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>5</v>
       </c>
@@ -19248,7 +19523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>5</v>
       </c>
@@ -19265,7 +19540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>5</v>
       </c>
@@ -19282,7 +19557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>5</v>
       </c>
@@ -19299,7 +19574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>5</v>
       </c>
@@ -19316,7 +19591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>5</v>
       </c>
@@ -19333,7 +19608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>5</v>
       </c>
@@ -19350,7 +19625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>5</v>
       </c>
@@ -19367,7 +19642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>5</v>
       </c>
@@ -19384,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>5</v>
       </c>
@@ -19401,7 +19676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>5</v>
       </c>
@@ -19418,7 +19693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>5</v>
       </c>
@@ -19435,7 +19710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>5</v>
       </c>

--- a/data/CDC cases projection 2022-02-19.xlsx
+++ b/data/CDC cases projection 2022-02-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\covid-wisconsin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB0F809-F557-4395-B1F5-07EF9E057C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A93065B-30A5-4AA5-882B-B16F7A5C4275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22412" yWindow="615" windowWidth="18851" windowHeight="9845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_table_for_daily_case_trend" sheetId="1" r:id="rId1"/>
@@ -2808,164 +2808,170 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$B$10:$B$61</c:f>
+              <c:f>data_table_for_daily_case_trend!$B$8:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>44613</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>44612</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>44611</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>44610</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>44609</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>44608</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>44607</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>44606</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>44605</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>44604</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>44603</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>44602</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>44601</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>44600</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>44599</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>44598</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>44597</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>44596</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>44595</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>44594</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>44593</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>44592</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>44591</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>44590</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>44589</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>44588</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>44587</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>44586</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>44585</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>44584</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>44583</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>44582</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>44581</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>44580</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>44579</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>44578</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>44577</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>44576</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>44575</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>44574</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>44573</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>44572</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>44571</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>44570</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>44569</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>44568</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>44567</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>44566</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>44565</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>44564</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>44563</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>44562</c:v>
                 </c:pt>
               </c:numCache>
@@ -3171,164 +3177,170 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$B$10:$B$61</c:f>
+              <c:f>data_table_for_daily_case_trend!$B$8:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>44613</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>44612</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>44611</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>44610</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>44609</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>44608</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>44607</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>44606</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>44605</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>44604</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>44603</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>44602</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>44601</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>44600</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>44599</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>44598</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>44597</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>44596</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>44595</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>44594</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>44593</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>44592</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>44591</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>44590</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>44589</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>44588</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>44587</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>44586</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>44585</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>44584</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>44583</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>44582</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>44581</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>44580</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>44579</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>44578</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>44577</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>44576</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>44575</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>44574</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>44573</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>44572</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>44571</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>44570</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>44569</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>44568</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>44567</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>44566</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>44565</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>44564</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>44563</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>44562</c:v>
                 </c:pt>
               </c:numCache>
@@ -3336,164 +3348,170 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$E$10:$E$61</c:f>
+              <c:f>data_table_for_daily_case_trend!$E$8:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
+                  <c:v>75208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79556</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>78306</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>98012</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>100129</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>103558</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>112670</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>121671</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>134463</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>145931</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>161858</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>168907</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>174092</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>188426</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>213615</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>229416</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>243707</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>287939</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>294769</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>309597</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>345166</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>378020</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>415052</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>445344</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>508181</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>530137</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>545124</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>580853</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>609320</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>639522</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>698817</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>685960</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>700244</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>719577</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>729735</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>747938</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>759600</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>745351</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>797597</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>807108</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>804016</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>804944</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>790663</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>769473</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>757509</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>703190</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>694933</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>675805</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>619472</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>591027</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>558802</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>511502</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>445075</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>417523</c:v>
                 </c:pt>
               </c:numCache>
@@ -3534,164 +3552,170 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$B$10:$B$61</c:f>
+              <c:f>data_table_for_daily_case_trend!$B$8:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>44613</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>44612</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>44611</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>44610</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>44609</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>44608</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>44607</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>44606</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>44605</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>44604</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>44603</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>44602</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>44601</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>44600</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>44599</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>44598</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>44597</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>44596</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>44595</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>44594</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>44593</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>44592</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>44591</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>44590</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>44589</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>44588</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>44587</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>44586</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>44585</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>44584</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>44583</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>44582</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>44581</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>44580</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>44579</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>44578</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>44577</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>44576</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>44575</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>44574</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>44573</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>44572</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>44571</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>44570</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>44569</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>44568</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>44567</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>44566</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>44565</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>44564</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>44563</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>44562</c:v>
                 </c:pt>
               </c:numCache>
@@ -3699,165 +3723,171 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$F$10:$F$61</c:f>
+              <c:f>data_table_for_daily_case_trend!$F$8:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>80842.024497988939</c:v>
+                  <c:v>72614.9037073691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87697.810694544576</c:v>
+                  <c:v>78662.786106655345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95135</c:v>
+                  <c:v>85214.378896621129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108480.47316866265</c:v>
+                  <c:v>92311.634638663571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111954.99223581601</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121449.30531335277</c:v>
+                  <c:v>108328.70676749587</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131748.78106397882</c:v>
+                  <c:v>117351.08709918102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>142921.70109214965</c:v>
+                  <c:v>127124.91503214047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>155042.13760546566</c:v>
+                  <c:v>137712.77643359572</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>168190.44448521821</c:v>
+                  <c:v>149182.46976412705</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>182453.79000204158</c:v>
+                  <c:v>161607.44021928933</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>197926.73470837282</c:v>
+                  <c:v>175067.25002961012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>214711.85833892651</c:v>
+                  <c:v>189648.08793049515</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>232920.43987529614</c:v>
+                  <c:v>205443.32106438876</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>252673.19528325164</c:v>
+                  <c:v>222554.09284924678</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>274101.07781365042</c:v>
+                  <c:v>241089.97064172098</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>297346.14617265214</c:v>
+                  <c:v>261169.64734231177</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>322562.50631687639</c:v>
+                  <c:v>282921.70143515599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>349917.33311724482</c:v>
+                  <c:v>306485.42032930022</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>379591.97866475268</c:v>
+                  <c:v>332011.69227365474</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>411783.17456581281</c:v>
+                  <c:v>359663.97255692817</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>446704.33619793376</c:v>
+                  <c:v>389619.33017952146</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>484586.97757245228</c:v>
+                  <c:v>422069.58169965522</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>525682.2461843174</c:v>
+                  <c:v>457222.51951421588</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>570262.58802440146</c:v>
+                  <c:v>495303.24243951146</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>618623.55379273219</c:v>
+                  <c:v>536555.59711219743</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>671085.75828715216</c:v>
+                  <c:v>581243.73944025894</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>727997.00595741055</c:v>
+                  <c:v>629653.82610266574</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>789734.59671629616</c:v>
+                  <c:v>682095.84692907496</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>856707.82729446772</c:v>
+                  <c:v>738905.60989306506</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>929360.70472200774</c:v>
+                  <c:v>800446.89142963535</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1008174.8899260518</c:v>
+                  <c:v>867113.76584634557</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1093672.8909594251</c:v>
+                  <c:v>939333.12874427845</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1186421.5270301765</c:v>
+                  <c:v>1017567.4306073333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1287035.6862972083</c:v>
+                  <c:v>1102317.63806416</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1396182.4023447561</c:v>
+                  <c:v>1194126.4417849104</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1514585.2763611928</c:v>
+                  <c:v>1293581.7315543075</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1643029.2743395192</c:v>
+                  <c:v>1401320.3607733615</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1782365.9311031548</c:v>
+                  <c:v>1518032.22449539</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1933518.995657742</c:v>
+                  <c:v>1644464.6771097055</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2097490.5552954925</c:v>
+                  <c:v>1781427.3179612197</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2275367.6790525597</c:v>
+                  <c:v>1929797.1755502757</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2468329.6245630351</c:v>
+                  <c:v>2090524.3235092759</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2677655.6560882549</c:v>
+                  <c:v>2264637.9643175397</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2904733.5255519967</c:v>
+                  <c:v>2453253.0197109352</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3151068.6728075827</c:v>
+                  <c:v>2657577.2699873964</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3418294.2061311635</c:v>
+                  <c:v>2878919.0879242676</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3708181.7291080668</c:v>
+                  <c:v>3118695.8168309461</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4022653.0856903289</c:v>
+                  <c:v>3378442.8463849556</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4363793.1012906777</c:v>
+                  <c:v>3659823.444367799</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4733863.4043815844</c:v>
+                  <c:v>3964639.4072572603</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5135317.4202313041</c:v>
+                  <c:v>4294842.5978763029</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4652547.4439789196</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5040044.4778065486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4151,80 +4181,86 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$C$10:$C$33</c:f>
+              <c:f>data_table_for_daily_case_trend!$C$8:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
@@ -4390,80 +4426,86 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$C$10:$C$33</c:f>
+              <c:f>data_table_for_daily_case_trend!$C$8:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
@@ -4471,80 +4513,86 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data_table_for_daily_case_trend!$E$10:$E$33</c:f>
+              <c:f>data_table_for_daily_case_trend!$E$8:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>75208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79556</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>78306</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>98012</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>100129</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>103558</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>112670</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>121671</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>134463</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>145931</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>161858</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>168907</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>174092</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>188426</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>213615</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>229416</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>243707</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>287939</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>294769</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>309597</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>345166</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>378020</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>415052</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>445344</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>508181</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>530137</c:v>
                 </c:pt>
               </c:numCache>
@@ -6252,8 +6300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -6297,8 +6345,8 @@
         <v>60</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F11" si="0" xml:space="preserve"> 95135*EXP(-0.0814*(C2-50))</f>
-        <v>42152.623963197031</v>
+        <f t="shared" ref="F2:F11" si="0" xml:space="preserve"> 100000*EXP(-0.08*(C2-50))</f>
+        <v>44932.896411722155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -6311,7 +6359,7 @@
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>45727.365928283223</v>
+        <v>48675.225595997166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -6324,7 +6372,7 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>49605.262926567477</v>
+        <v>52729.242404304852</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -6337,7 +6385,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>53812.023939299594</v>
+        <v>57120.906384881484</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -6350,7 +6398,7 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>58375.538190986219</v>
+        <v>61878.339180614086</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -6363,7 +6411,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>63326.060044335223</v>
+        <v>67032.004603563939</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -6374,9 +6422,12 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
+      <c r="E8">
+        <v>75208</v>
+      </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>68696.409575166268</v>
+        <v>72614.9037073691</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -6387,9 +6438,12 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
+      <c r="E9">
+        <v>79556</v>
+      </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>74522.190157022851</v>
+        <v>78662.786106655345</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -6408,7 +6462,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>80842.024497988939</v>
+        <v>85214.378896621129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -6427,7 +6481,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>87697.810694544576</v>
+        <v>92311.634638663571</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -6445,8 +6499,8 @@
         <v>100129</v>
       </c>
       <c r="F12" s="2">
-        <f xml:space="preserve"> 95135*EXP(-0.08*(C12-50))</f>
-        <v>95135</v>
+        <f xml:space="preserve"> 100000*EXP(-0.08*(C12-50))</f>
+        <v>100000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -6467,8 +6521,8 @@
         <v>103558</v>
       </c>
       <c r="F13" s="2">
-        <f>100000*EXP(-0.0814*(C13-50))</f>
-        <v>108480.47316866265</v>
+        <f t="shared" ref="F13:F61" si="2" xml:space="preserve"> 100000*EXP(-0.08*(C13-50))</f>
+        <v>108328.70676749587</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -6492,8 +6546,8 @@
         <v>112670</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ref="F14:F61" si="2" xml:space="preserve"> 95135*EXP(-0.0814*(C14-50))</f>
-        <v>111954.99223581601</v>
+        <f t="shared" si="2"/>
+        <v>117351.08709918102</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6518,7 +6572,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="2"/>
-        <v>121449.30531335277</v>
+        <v>127124.91503214047</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6543,7 +6597,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>131748.78106397882</v>
+        <v>137712.77643359572</v>
       </c>
       <c r="G16">
         <v>137</v>
@@ -6568,7 +6622,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>142921.70109214965</v>
+        <v>149182.46976412705</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -6593,7 +6647,7 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="2"/>
-        <v>155042.13760546566</v>
+        <v>161607.44021928933</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -6618,7 +6672,7 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>168190.44448521821</v>
+        <v>175067.25002961012</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -6643,7 +6697,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>182453.79000204158</v>
+        <v>189648.08793049515</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -6668,7 +6722,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
-        <v>197926.73470837282</v>
+        <v>205443.32106438876</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -6693,7 +6747,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="2"/>
-        <v>214711.85833892651</v>
+        <v>222554.09284924678</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -6718,7 +6772,7 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="2"/>
-        <v>232920.43987529614</v>
+        <v>241089.97064172098</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -6743,7 +6797,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="2"/>
-        <v>252673.19528325164</v>
+        <v>261169.64734231177</v>
       </c>
       <c r="G24">
         <v>10500</v>
@@ -6768,7 +6822,7 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="2"/>
-        <v>274101.07781365042</v>
+        <v>282921.70143515599</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -6793,7 +6847,7 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="2"/>
-        <v>297346.14617265214</v>
+        <v>306485.42032930022</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -6818,7 +6872,7 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="2"/>
-        <v>322562.50631687639</v>
+        <v>332011.69227365474</v>
       </c>
       <c r="G27">
         <v>13581</v>
@@ -6843,7 +6897,7 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="2"/>
-        <v>349917.33311724482</v>
+        <v>359663.97255692817</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -6868,7 +6922,7 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="2"/>
-        <v>379591.97866475268</v>
+        <v>389619.33017952146</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6893,7 +6947,7 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="2"/>
-        <v>411783.17456581281</v>
+        <v>422069.58169965522</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -6918,7 +6972,7 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" si="2"/>
-        <v>446704.33619793376</v>
+        <v>457222.51951421588</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -6943,7 +6997,7 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" si="2"/>
-        <v>484586.97757245228</v>
+        <v>495303.24243951146</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -6968,7 +7022,7 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" si="2"/>
-        <v>525682.2461843174</v>
+        <v>536555.59711219743</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6993,7 +7047,7 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="2"/>
-        <v>570262.58802440146</v>
+        <v>581243.73944025894</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -7018,7 +7072,7 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" si="2"/>
-        <v>618623.55379273219</v>
+        <v>629653.82610266574</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -7043,7 +7097,7 @@
       </c>
       <c r="F36" s="2">
         <f t="shared" si="2"/>
-        <v>671085.75828715216</v>
+        <v>682095.84692907496</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -7068,7 +7122,7 @@
       </c>
       <c r="F37" s="2">
         <f t="shared" si="2"/>
-        <v>727997.00595741055</v>
+        <v>738905.60989306506</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -7093,7 +7147,7 @@
       </c>
       <c r="F38" s="2">
         <f t="shared" si="2"/>
-        <v>789734.59671629616</v>
+        <v>800446.89142963535</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -7118,7 +7172,7 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" si="2"/>
-        <v>856707.82729446772</v>
+        <v>867113.76584634557</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -7143,7 +7197,7 @@
       </c>
       <c r="F40" s="2">
         <f t="shared" si="2"/>
-        <v>929360.70472200774</v>
+        <v>939333.12874427845</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -7168,7 +7222,7 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" si="2"/>
-        <v>1008174.8899260518</v>
+        <v>1017567.4306073333</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -7193,7 +7247,7 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" si="2"/>
-        <v>1093672.8909594251</v>
+        <v>1102317.63806416</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -7218,7 +7272,7 @@
       </c>
       <c r="F43" s="2">
         <f t="shared" si="2"/>
-        <v>1186421.5270301765</v>
+        <v>1194126.4417849104</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -7243,7 +7297,7 @@
       </c>
       <c r="F44" s="2">
         <f t="shared" si="2"/>
-        <v>1287035.6862972083</v>
+        <v>1293581.7315543075</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -7268,7 +7322,7 @@
       </c>
       <c r="F45" s="2">
         <f t="shared" si="2"/>
-        <v>1396182.4023447561</v>
+        <v>1401320.3607733615</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -7293,7 +7347,7 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" si="2"/>
-        <v>1514585.2763611928</v>
+        <v>1518032.22449539</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -7318,7 +7372,7 @@
       </c>
       <c r="F47" s="2">
         <f t="shared" si="2"/>
-        <v>1643029.2743395192</v>
+        <v>1644464.6771097055</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -7343,7 +7397,7 @@
       </c>
       <c r="F48" s="2">
         <f t="shared" si="2"/>
-        <v>1782365.9311031548</v>
+        <v>1781427.3179612197</v>
       </c>
       <c r="G48">
         <v>46571</v>
@@ -7368,7 +7422,7 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" si="2"/>
-        <v>1933518.995657742</v>
+        <v>1929797.1755502757</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -7393,7 +7447,7 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" si="2"/>
-        <v>2097490.5552954925</v>
+        <v>2090524.3235092759</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -7418,7 +7472,7 @@
       </c>
       <c r="F51" s="2">
         <f t="shared" si="2"/>
-        <v>2275367.6790525597</v>
+        <v>2264637.9643175397</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -7443,7 +7497,7 @@
       </c>
       <c r="F52" s="2">
         <f t="shared" si="2"/>
-        <v>2468329.6245630351</v>
+        <v>2453253.0197109352</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -7468,7 +7522,7 @@
       </c>
       <c r="F53" s="2">
         <f t="shared" si="2"/>
-        <v>2677655.6560882549</v>
+        <v>2657577.2699873964</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -7493,7 +7547,7 @@
       </c>
       <c r="F54" s="2">
         <f t="shared" si="2"/>
-        <v>2904733.5255519967</v>
+        <v>2878919.0879242676</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -7518,7 +7572,7 @@
       </c>
       <c r="F55" s="2">
         <f t="shared" si="2"/>
-        <v>3151068.6728075827</v>
+        <v>3118695.8168309461</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -7543,7 +7597,7 @@
       </c>
       <c r="F56" s="2">
         <f t="shared" si="2"/>
-        <v>3418294.2061311635</v>
+        <v>3378442.8463849556</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -7568,7 +7622,7 @@
       </c>
       <c r="F57" s="2">
         <f t="shared" si="2"/>
-        <v>3708181.7291080668</v>
+        <v>3659823.444367799</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -7593,7 +7647,7 @@
       </c>
       <c r="F58" s="2">
         <f t="shared" si="2"/>
-        <v>4022653.0856903289</v>
+        <v>3964639.4072572603</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -7618,7 +7672,7 @@
       </c>
       <c r="F59" s="2">
         <f t="shared" si="2"/>
-        <v>4363793.1012906777</v>
+        <v>4294842.5978763029</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -7643,7 +7697,7 @@
       </c>
       <c r="F60" s="2">
         <f t="shared" si="2"/>
-        <v>4733863.4043815844</v>
+        <v>4652547.4439789196</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -7668,7 +7722,7 @@
       </c>
       <c r="F61" s="2">
         <f t="shared" si="2"/>
-        <v>5135317.4202313041</v>
+        <v>5040044.4778065486</v>
       </c>
       <c r="G61">
         <v>0</v>
